--- a/sd-swagger/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/sd-swagger/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T11:06:51+00:00</t>
+    <t>2024-03-15T13:27:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-swagger/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/sd-swagger/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T13:27:56+00:00</t>
+    <t>2024-03-15T13:59:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-swagger/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/sd-swagger/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T13:59:29+00:00</t>
+    <t>2024-03-15T17:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,10 +237,10 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: Spécification métier vers l'extension ROR OrganizationPrice</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Spécification métier vers l'extension ROR OrganizationPrice</t>
   </si>
   <si>
     <t/>
@@ -1091,8 +1091,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="133.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="133.78125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1311,10 +1311,10 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -1417,10 +1417,10 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -1737,10 +1737,10 @@
         <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1951,10 +1951,10 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -2055,10 +2055,10 @@
         <v>120</v>
       </c>
       <c r="AK9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="10">
@@ -2269,10 +2269,10 @@
         <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -2483,10 +2483,10 @@
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -2587,10 +2587,10 @@
         <v>120</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -2801,10 +2801,10 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -3015,10 +3015,10 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -3121,10 +3121,10 @@
         <v>120</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="20">
@@ -3335,10 +3335,10 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -3549,10 +3549,10 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -3655,10 +3655,10 @@
         <v>120</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="25">
@@ -3869,10 +3869,10 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -4083,10 +4083,10 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -4189,10 +4189,10 @@
         <v>120</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="30">
@@ -4403,10 +4403,10 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="32">
@@ -4617,10 +4617,10 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -4721,10 +4721,10 @@
         <v>120</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="35">
@@ -4935,10 +4935,10 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="37">
@@ -5149,10 +5149,10 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="39">
@@ -5255,10 +5255,10 @@
         <v>120</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="40">
@@ -5469,10 +5469,10 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="42">
@@ -5683,10 +5683,10 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -5787,10 +5787,10 @@
         <v>120</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>175</v>
       </c>
     </row>
     <row r="45">
@@ -6001,10 +6001,10 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="47">
@@ -6215,10 +6215,10 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="49">
@@ -6319,10 +6319,10 @@
         <v>120</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>183</v>
       </c>
     </row>
     <row r="50">
@@ -6533,10 +6533,10 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="52">
@@ -6747,10 +6747,10 @@
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="54">
@@ -6851,10 +6851,10 @@
         <v>120</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="55">
@@ -7065,10 +7065,10 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="57">
@@ -7279,10 +7279,10 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="59">
@@ -7385,10 +7385,10 @@
         <v>120</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="60">
@@ -7599,10 +7599,10 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="62">
@@ -7813,10 +7813,10 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="64">
@@ -7917,10 +7917,10 @@
         <v>120</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="65">
@@ -8131,10 +8131,10 @@
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="67">
@@ -8345,10 +8345,10 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="69">
@@ -8451,10 +8451,10 @@
         <v>120</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="70">
@@ -8665,10 +8665,10 @@
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="72">
@@ -8879,10 +8879,10 @@
         <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="74">
@@ -8983,10 +8983,10 @@
         <v>120</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="75">
@@ -9197,10 +9197,10 @@
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="77">
@@ -9411,10 +9411,10 @@
         <v>76</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="79">
@@ -9517,10 +9517,10 @@
         <v>120</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>228</v>
       </c>
     </row>
     <row r="80">
@@ -9731,10 +9731,10 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="82">
@@ -9945,10 +9945,10 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="84">
@@ -10049,10 +10049,10 @@
         <v>120</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>235</v>
       </c>
     </row>
     <row r="85">
@@ -10157,10 +10157,10 @@
         <v>76</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="86">
@@ -10263,10 +10263,10 @@
         <v>120</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
